--- a/API설계서/animal_face_API설계_v001_20200724.xlsx
+++ b/API설계서/animal_face_API설계_v001_20200724.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\animal-face\API설계서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D305351-64E0-4BF9-92F0-D50A8284C5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3040BE2-3798-44D6-B6EC-73CAC63FCC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17430" yWindow="3225" windowWidth="8535" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="285" windowWidth="13110" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="87">
   <si>
     <t>이름</t>
   </si>
@@ -215,24 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>upload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>face</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -309,12 +291,248 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"click":""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지upload로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보고서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/face_result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>": "",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>":"",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 다운로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 보고서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>": "",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"time":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"message":""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 메시지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내역관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습데이터 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습된 데이터 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"face":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model-update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/model_update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -353,6 +571,12 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -525,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -563,12 +787,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -849,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -861,12 +1087,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
@@ -905,28 +1131,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C8" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="28" t="s">
+      <c r="D8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -934,7 +1168,13 @@
     <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
@@ -1009,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:F20"/>
+  <dimension ref="A3:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1035,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,47 +1327,27 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>43</v>
+      <c r="A9" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="D9" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="D9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="A11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
@@ -1219,8 +1439,2320 @@
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="D26" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="D33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="D34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="D43" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="D50" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="D51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="D60" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="D67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="D68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="D77" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="D82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="D83" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="D92" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="D99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="D100" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="17"/>
+      <c r="D109" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="16"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="17"/>
+      <c r="D118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="17"/>
+      <c r="D119" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="22"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B122" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" s="17"/>
+      <c r="D128" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E132" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="16"/>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="17"/>
+      <c r="D137" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="17"/>
+      <c r="D138" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="22"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="10"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B147" s="17"/>
+      <c r="D147" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="10"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="16"/>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="17"/>
+      <c r="D152" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="17"/>
+      <c r="D153" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="22"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="10"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162" s="17"/>
+      <c r="D162" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B163" s="17"/>
+      <c r="C163" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E163" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="10"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="16"/>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="17"/>
+      <c r="D168" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="17"/>
+      <c r="D169" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="22"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="10"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B178" s="17"/>
+      <c r="D178" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B179" s="17"/>
+      <c r="D179" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E179" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B180" s="17"/>
+      <c r="D180" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E180" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B181" s="17"/>
+      <c r="D181" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="10"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="16"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="17"/>
+      <c r="D186" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" s="17"/>
+      <c r="D187" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="22"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="10"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B196" s="17"/>
+      <c r="D196" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="10"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="16"/>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="17"/>
+      <c r="D201" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="17"/>
+      <c r="D202" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="22"/>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B205" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="10"/>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B211" s="17"/>
+      <c r="D211" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E211" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F211" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="13"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="10"/>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="16"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B216" s="17"/>
+      <c r="D216" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E216" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F216" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" s="17"/>
+      <c r="D217" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="19"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
